--- a/Report Examples/Leave/PR17_ZLVEALU_Annual_Leave_Utilization_By_Date_ UBA_NIGERIA.docx.xlsx
+++ b/Report Examples/Leave/PR17_ZLVEALU_Annual_Leave_Utilization_By_Date_ UBA_NIGERIA.docx.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParityLoan1\Desktop\Sage\Leave\TDD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ParityLoan1\Desktop\Sage\Leave\TDD\Updated_TDD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
